--- a/lab07/Unit test/Testcase.xlsx
+++ b/lab07/Unit test/Testcase.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tai_lieu\TKXDPM\Task_in_class\Lab04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HUST\TKXDPM.CNTN.20221-20190050.TranLeHiep\TKXDPM.CNTN.20221-20190050.TranLeHiep\lab07\Unit test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92772334-91E5-4B52-9D81-8D528810BEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AFB2DB71-D4FD-40B4-B0D0-542FFF60DE87}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13392"/>
   </bookViews>
   <sheets>
     <sheet name="validateDeliveryInfo" sheetId="1" r:id="rId1"/>
     <sheet name="Place rush order" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -52,21 +51,12 @@
     <t>Test  Tên người nhận</t>
   </si>
   <si>
-    <t>Le Minh Tu</t>
-  </si>
-  <si>
     <t>Tên đúng cú pháp</t>
   </si>
   <si>
-    <t>tulm5</t>
-  </si>
-  <si>
     <t>tên không chứa ký tự đặc biệt</t>
   </si>
   <si>
-    <t>tu@vipro</t>
-  </si>
-  <si>
     <t>"0123456789"</t>
   </si>
   <si>
@@ -107,12 +97,21 @@
   </si>
   <si>
     <t>địa chỉ không được bỏ trống</t>
+  </si>
+  <si>
+    <t>Tran Le Hiep</t>
+  </si>
+  <si>
+    <t>hieptl5</t>
+  </si>
+  <si>
+    <t>hiep@yahoo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -543,11 +542,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F3521B1-F1E7-46A1-A608-53C45F0CC801}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -574,13 +573,13 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
@@ -629,37 +628,37 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="b">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G3" s="2" t="b">
         <v>1</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K3" s="1" t="b">
         <v>1</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -667,37 +666,37 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E4" s="2">
         <v>2</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G4" s="2" t="b">
         <v>0</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I4" s="1">
         <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K4" s="1" t="b">
         <v>0</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -705,25 +704,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E5" s="2">
         <v>3</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G5" s="2" t="b">
         <v>0</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I5" s="1">
         <v>3</v>
@@ -737,25 +736,25 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2">
         <v>4</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G6" s="2" t="b">
         <v>0</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I6" s="1">
         <v>4</v>
@@ -931,14 +930,14 @@
     <mergeCell ref="I1:L1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{F7DDC41C-C22C-491C-9502-C0013AE146F4}"/>
+    <hyperlink ref="B5" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A4EB8C1-C45B-4BD3-9BD9-9949644A14CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
